--- a/명세서.xlsx
+++ b/명세서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongmun/crawling-cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{508584E3-CF09-6747-B9E0-14EF6FDAD6CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470645A1-D030-7A44-BB27-01F7B4A26D78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20700" windowHeight="21140" xr2:uid="{C5A0474A-8B23-8E40-AE41-46D418A5A927}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>스팩업에드 크롤링 프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>2. 제목에 기업명은 [기업명] 혹은 ★기업명★ 으로 작성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년월일 유효성 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,12 +73,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +101,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,30 +422,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD7987-B654-374A-9804-AEF39E21BA68}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>3</v>
       </c>
